--- a/think-about-the-phone.xlsx
+++ b/think-about-the-phone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="9405"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>月額税込</t>
     <rPh sb="0" eb="2">
@@ -177,6 +177,54 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo with + シンプルプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※端数は四捨五入。</t>
+    <rPh sb="1" eb="3">
+      <t>ハスウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo - ケータイ補償 for iPhone</t>
+    <rPh sb="13" eb="15">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末補償に加入したときの追加費用</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -184,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,7 +399,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -598,7 +644,7 @@
         <v>150148</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -641,12 +687,12 @@
         <v>162844</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15">
       <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -654,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -663,15 +709,15 @@
         <v>5500</v>
       </c>
       <c r="D7">
-        <f>C7*1.08</f>
+        <f>ROUND(C7*1.08,0)</f>
         <v>5940</v>
       </c>
       <c r="E7">
-        <f>D7*12</f>
+        <f>ROUND(D7*12,0)</f>
         <v>71280</v>
       </c>
       <c r="F7">
-        <f>E7*2</f>
+        <f>ROUND(E7*2,0)</f>
         <v>142560</v>
       </c>
       <c r="H7">
@@ -688,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -722,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="C9">
         <f>C7-C8</f>
         <v>1120</v>
@@ -731,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -740,15 +786,15 @@
         <v>4000</v>
       </c>
       <c r="D10">
-        <f>C10*1.08</f>
+        <f>ROUND(C10*1.08,0)</f>
         <v>4320</v>
       </c>
       <c r="E10">
-        <f>D10*12</f>
+        <f>ROUND(D10*12,0)</f>
         <v>51840</v>
       </c>
       <c r="F10">
-        <f>E10*2</f>
+        <f>ROUND(E10*2,0)</f>
         <v>103680</v>
       </c>
       <c r="H10">
@@ -765,9 +811,113 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <f>980+3100+300-1500</f>
+        <v>2880</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(C11*1.08,0)</f>
+        <v>3110</v>
+      </c>
+      <c r="E11">
+        <f>ROUND(D11*12,0)</f>
+        <v>37320</v>
+      </c>
+      <c r="F11">
+        <f>ROUND(E11*2,0)</f>
+        <v>74640</v>
+      </c>
+      <c r="H11">
+        <v>36288</v>
+      </c>
+      <c r="I11">
+        <f>SUM(F11,H11)</f>
+        <v>110928</v>
+      </c>
       <c r="L11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f>1518+620</f>
+        <v>2138</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(C16*1.08,0)</f>
+        <v>2309</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(D16*12,0)</f>
+        <v>27708</v>
+      </c>
+      <c r="F16">
+        <f>ROUND(E16*2,0)</f>
+        <v>55416</v>
+      </c>
+      <c r="H16">
+        <v>104544</v>
+      </c>
+      <c r="I16">
+        <f>SUM(F16,H16)</f>
+        <v>159960</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>750</v>
+      </c>
+      <c r="D19">
+        <f>ROUND(C19*1.08,0)</f>
+        <v>810</v>
+      </c>
+      <c r="E19">
+        <f>ROUND(D19*12,0)</f>
+        <v>9720</v>
+      </c>
+      <c r="F19">
+        <f>ROUND(E19*2,0)</f>
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <f>ROUND(C20*1.08,0)</f>
+        <v>540</v>
+      </c>
+      <c r="E20">
+        <f>ROUND(D20*12,0)</f>
+        <v>6480</v>
+      </c>
+      <c r="F20">
+        <f>ROUND(E20*2,0)</f>
+        <v>12960</v>
       </c>
     </row>
   </sheetData>
@@ -778,12 +928,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,12 +941,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/think-about-the-phone.xlsx
+++ b/think-about-the-phone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="9405"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>月額税込</t>
     <rPh sb="0" eb="2">
@@ -226,14 +226,91 @@
     <rPh sb="14" eb="16">
       <t>ヒヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データSパック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケータイ補償 for iPhone</t>
+    <rPh sb="4" eb="6">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カケホライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェア均等請求</t>
+    <rPh sb="3" eb="5">
+      <t>キントウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケータイ補償</t>
+    <rPh sb="4" eb="6">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラス端末</t>
+    <rPh sb="3" eb="5">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇iPhone7Plus 128GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇Galaxy Feel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo with</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,8 +355,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,7 +377,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,6 +451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -399,6 +486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -604,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -644,7 +732,7 @@
         <v>150148</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -687,12 +775,12 @@
         <v>162844</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -700,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -734,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -768,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C9">
         <f>C7-C8</f>
         <v>1120</v>
@@ -777,7 +865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -811,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -842,12 +930,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -875,12 +963,12 @@
         <v>159960</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -900,7 +988,7 @@
         <v>19440</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -918,6 +1006,244 @@
       <c r="F20">
         <f>ROUND(E20*2,0)</f>
         <v>12960</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1700</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>980</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>1700</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>3500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <f>(6500-800+500)/2</f>
+        <v>3100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>3500</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27">
+        <f>(6500-800+500)/2</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>750</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>750</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <f>SUM(C26:C29)</f>
+        <v>6250</v>
+      </c>
+      <c r="F30">
+        <f>SUM(F26:F29)</f>
+        <v>5130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>-1500</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <f>ROUND(C30*1.08,0)</f>
+        <v>6750</v>
+      </c>
+      <c r="F31">
+        <f>ROUND(F30*1.08,0)</f>
+        <v>5540</v>
+      </c>
+      <c r="I31">
+        <f>SUM(I26:I30)</f>
+        <v>4500</v>
+      </c>
+      <c r="L31">
+        <f>SUM(L26:L30)</f>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <f>C31*12</f>
+        <v>81000</v>
+      </c>
+      <c r="F32">
+        <f>F31*12</f>
+        <v>66480</v>
+      </c>
+      <c r="I32">
+        <f>ROUND(I31*1.08,0)</f>
+        <v>4860</v>
+      </c>
+      <c r="L32">
+        <f>ROUND(L31*1.08,0)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C31*24</f>
+        <v>162000</v>
+      </c>
+      <c r="F33" s="1">
+        <f>F31*24</f>
+        <v>132960</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33">
+        <f>I32*12</f>
+        <v>58320</v>
+      </c>
+      <c r="L33">
+        <f>L32*12</f>
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I32*24</f>
+        <v>116640</v>
+      </c>
+      <c r="L34" s="1">
+        <f>L32*24</f>
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C33+40824</f>
+        <v>202824</v>
+      </c>
+      <c r="F35" s="1">
+        <f>F33+40824</f>
+        <v>173784</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="1">
+        <f>I34+36288</f>
+        <v>152928</v>
+      </c>
+      <c r="L36" s="1">
+        <f>L34+36288</f>
+        <v>123888</v>
       </c>
     </row>
   </sheetData>
@@ -928,12 +1254,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -941,12 +1267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
